--- a/homeworks/02/report/data.xlsx
+++ b/homeworks/02/report/data.xlsx
@@ -1,14 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Honza\git\NI-KOP\homeworks\02\report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9356E36F-99B7-4BC7-A581-4397DA0B3A61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$6:$B$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$5</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$6:$B$11</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$5</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$6:$C$11</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$D$5</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$6:$D$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$6:$C$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$6:$D$11</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$6:$B$11</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$6:$C$11</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$D$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$D$6:$D$11</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,8 +41,31 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>BF avg</t>
+  </si>
+  <si>
+    <t>BF max</t>
+  </si>
+  <si>
+    <t>BnB avg</t>
+  </si>
+  <si>
+    <t>BnB max</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,12 +91,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +154,1270 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>výpočetní</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> čas </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>BF vs BnB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BF avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19.327999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1371.8520000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33853.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1079373.824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4337185.2960000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95EB-438B-8C31-569EC543FFBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BF max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1163936</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4783422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-95EB-438B-8C31-569EC543FFBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val 15115"/>
+                        <a:gd name="adj2" fmla="val -199253"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-95EB-438B-8C31-569EC543FFBA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-95EB-438B-8C31-569EC543FFBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1790453088"/>
+        <c:axId val="1780117616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1790453088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1780117616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1780117616"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1790453088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35976707283675086"/>
+          <c:y val="0.94948151811439541"/>
+          <c:w val="0.28823666953135285"/>
+          <c:h val="5.0518468538120205E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>60081</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D7C9659-9A29-4BCE-B591-B3803BA54294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1682,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="8" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>19.327999999999999</v>
+      </c>
+      <c r="D6" s="5">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1371.8520000000001</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2542</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>33853.01</v>
+      </c>
+      <c r="D8" s="5">
+        <v>37219</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1079373.824</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1163936</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4337185.2960000001</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4783422</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>